--- a/Excel reader/First Contest/B3.xlsx
+++ b/Excel reader/First Contest/B3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,20 +424,25 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Hackerearth Username</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Enrolment</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Score</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Problems Solved</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Plagiarism Status</t>
         </is>
@@ -446,16 +451,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>mdhivagar18</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>181b082</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -464,16 +474,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>harsh06</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>181b096</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -482,16 +497,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>devik2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>181b081</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -500,18 +520,23 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>daksh111</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>181b076</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Also disqualified due to Tab switches</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -520,16 +545,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>balaji1015</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>181b069</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -538,16 +568,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>chaitanya476</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>181b073</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -556,16 +591,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>deepak3082</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>181b077</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -574,16 +614,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>ayushi379</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>181b067</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -592,18 +637,23 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>harsh1041</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>181b095</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Also disqualified due to Tab switches</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -612,16 +662,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>bm27_._</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>181b071</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>6</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -630,16 +685,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>divyansh2000</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>181b086</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>6</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -648,16 +708,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>ayushman67</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>181b068</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>6</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -666,16 +731,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>rafa2612</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>181b088</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>6</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -684,16 +754,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>gourijangid007</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>181b093</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>6</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -702,16 +777,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>devansh296</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>181b080</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>6</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -720,16 +800,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>devanshpandeyknp</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>181b079</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>6</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -738,16 +823,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>chandan758</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>181b074</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>6</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -756,34 +846,46 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>gauravacharyaofficial</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>181b092</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>3</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Disqualified due to Tab switches</t>
         </is>
       </c>
-      <c r="D19" t="b">
-        <v>0</v>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>paliwalgarvit3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>181b091</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>6</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
